--- a/Correct_Predictions.xlsx
+++ b/Correct_Predictions.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\Courses\CS396\ARGA-AAAI23-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD821C1E-9CA8-45A9-9653-23C7453FA8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C9EA00-9AB7-4608-9959-EE24D91F302C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{0E1EA5D8-BBB4-4BDA-B837-91ADE6535383}"/>
+    <workbookView xWindow="6240" yWindow="3710" windowWidth="19200" windowHeight="9970" xr2:uid="{0E1EA5D8-BBB4-4BDA-B837-91ADE6535383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$L$55</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="334">
   <si>
     <t>task_id</t>
   </si>
@@ -1290,39 +1292,6 @@
     </r>
   </si>
   <si>
-    <t>Predicted -&gt; True (Solved)</t>
-  </si>
-  <si>
-    <t>ccg -&gt; nbccg</t>
-  </si>
-  <si>
-    <t>ccgbr -&gt; nbccg</t>
-  </si>
-  <si>
-    <t>mcccg -&gt; nbccg</t>
-  </si>
-  <si>
-    <t>mcccg -&gt; na</t>
-  </si>
-  <si>
-    <t>ccgbr -&gt; na</t>
-  </si>
-  <si>
-    <t>na -&gt; nbccg</t>
-  </si>
-  <si>
-    <t>nbvcg -&gt; nbccg</t>
-  </si>
-  <si>
-    <t>ccgbr2 -&gt; nbccg</t>
-  </si>
-  <si>
-    <t>ccg -&gt;na</t>
-  </si>
-  <si>
-    <t>nbccg -&gt; ccg</t>
-  </si>
-  <si>
     <r>
       <t>nbccg</t>
     </r>
@@ -1444,27 +1413,59 @@
     <t>Yes</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tasks with at least one correct abstraction : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43 = 79.63%</t>
-    </r>
+    <t>predicted</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>% of 54 tasks</t>
+  </si>
+  <si>
+    <t>nbccg = Yes</t>
+  </si>
+  <si>
+    <t>nbccg or na = Yes</t>
+  </si>
+  <si>
+    <t>nbccg or na or ccgbr = Yes</t>
+  </si>
+  <si>
+    <t>Tasks (Yes)</t>
+  </si>
+  <si>
+    <t>nbccg or na or ccg = Yes</t>
+  </si>
+  <si>
+    <t>na = Yes</t>
+  </si>
+  <si>
+    <t>ccg = Yes</t>
+  </si>
+  <si>
+    <t>ccgbr = Yes</t>
+  </si>
+  <si>
+    <t>≥ 1 of nbccg or na</t>
+  </si>
+  <si>
+    <t>≥ 1 of nbccg or na or ccg</t>
+  </si>
+  <si>
+    <t>≥ 1 of nbccg or na or ccg or ccgbr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,6 +1499,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1535,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -1564,7 +1571,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1881,7 +1893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F053DE6-DF28-4294-9925-8A29EE44C60B}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -3999,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12C57E4-26CF-42F2-BF1B-B211B4FA4608}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4196,7 +4208,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="9" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4344,118 +4356,140 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="6">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6">
         <v>13</v>
       </c>
-      <c r="C24" s="6"/>
       <c r="D24" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B25" s="6">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
         <v>12</v>
       </c>
-      <c r="C25" s="6"/>
       <c r="D25" s="9" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B26" s="6">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6">
         <v>9</v>
       </c>
-      <c r="C26" s="6"/>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B27" s="6">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B28" s="6">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B29" s="6">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B30" s="6">
+        <v>60</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B31" s="6">
+        <v>99</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6">
         <v>4</v>
       </c>
-      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B32" s="6">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6">
         <v>2</v>
       </c>
-      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B33" s="6">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6">
         <v>2</v>
       </c>
-      <c r="C33" s="6"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4529,19 +4563,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7FC0F1-8D6A-40A9-A7E2-CEE1DDAF630C}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4561,18 +4595,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>6</v>
@@ -4581,18 +4615,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>15</v>
@@ -4601,18 +4635,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>8</v>
@@ -4621,175 +4655,208 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29">
       <c r="A8" t="s">
         <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="7">
+        <v>34</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="7">
+        <v>41</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="7">
+        <v>43</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4797,13 +4864,13 @@
         <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4811,13 +4878,13 @@
         <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4825,13 +4892,13 @@
         <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C19" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4839,13 +4906,13 @@
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4853,13 +4920,13 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D21" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4867,13 +4934,13 @@
         <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4881,13 +4948,13 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4895,13 +4962,13 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4909,13 +4976,13 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4923,13 +4990,13 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4937,13 +5004,13 @@
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4951,13 +5018,13 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4965,13 +5032,13 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4979,13 +5046,13 @@
         <v>274</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D30" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4993,13 +5060,13 @@
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C31" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D31" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5007,13 +5074,13 @@
         <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5021,13 +5088,13 @@
         <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C33" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5035,13 +5102,13 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D34" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5049,13 +5116,13 @@
         <v>162</v>
       </c>
       <c r="B35" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C35" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D35" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5063,13 +5130,13 @@
         <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D36" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5077,13 +5144,13 @@
         <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D37" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5091,13 +5158,13 @@
         <v>177</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5105,13 +5172,13 @@
         <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5119,13 +5186,13 @@
         <v>192</v>
       </c>
       <c r="B40" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D40" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5133,13 +5200,13 @@
         <v>187</v>
       </c>
       <c r="B41" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C41" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5147,13 +5214,13 @@
         <v>197</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C42" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D42" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5161,13 +5228,13 @@
         <v>202</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C43" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D43" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5175,13 +5242,13 @@
         <v>207</v>
       </c>
       <c r="B44" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5189,13 +5256,13 @@
         <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C45" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D45" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5203,13 +5270,13 @@
         <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5217,13 +5284,13 @@
         <v>232</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C47" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5231,13 +5298,13 @@
         <v>222</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C48" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5245,13 +5312,13 @@
         <v>237</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D49" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5259,13 +5326,13 @@
         <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D50" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5273,13 +5340,13 @@
         <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C51" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D51" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5287,13 +5354,13 @@
         <v>247</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C52" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D52" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5301,13 +5368,13 @@
         <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C53" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D53" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5315,13 +5382,13 @@
         <v>257</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D54" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5329,13 +5396,1896 @@
         <v>262</v>
       </c>
       <c r="B55" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22571EB-6C88-46AB-8EB7-5FF4D7A1A20F}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="7" max="7" width="21.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="7">
+        <v>34</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="7">
+        <v>41</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="7">
+        <v>43</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" t="s">
+        <v>317</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" t="s">
+        <v>317</v>
+      </c>
+      <c r="C52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" t="s">
+        <v>317</v>
+      </c>
+      <c r="D54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24504BF5-EF22-4968-A47B-855B01B99EA7}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="6">
+        <v>34</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>328</v>
       </c>
+      <c r="H9" s="6">
+        <v>7</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="6">
+        <v>13</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="6">
+        <v>13</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="6">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="6">
+        <v>43</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="7">
+        <v>44</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" t="s">
+        <v>316</v>
+      </c>
+      <c r="E33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" t="s">
+        <v>317</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" t="s">
+        <v>317</v>
+      </c>
+      <c r="E50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" t="s">
+        <v>316</v>
+      </c>
+      <c r="E51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" t="s">
+        <v>317</v>
+      </c>
+      <c r="C52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" t="s">
+        <v>317</v>
+      </c>
+      <c r="E53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" t="s">
+        <v>317</v>
+      </c>
+      <c r="D54" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" t="s">
+        <v>317</v>
+      </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D55" t="s">
-        <v>327</v>
+        <v>316</v>
+      </c>
+      <c r="E55" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
